--- a/Full DATA CEPEH Moh.xlsx
+++ b/Full DATA CEPEH Moh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CEPEH Rmarkdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B682EF3-8659-410C-AA96-CFFCAA117F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC50F5-8E7A-4F9D-AA44-7BB249111DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9349" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9347" uniqueCount="383">
   <si>
     <t>Female</t>
   </si>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:CJ169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17031,12 +17031,6 @@
       </c>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>31</v>
-      </c>
       <c r="C95" t="s">
         <v>363</v>
       </c>
@@ -17050,7 +17044,7 @@
         <v>344</v>
       </c>
       <c r="G95" t="s">
-        <v>292</v>
+        <v>8</v>
       </c>
       <c r="H95" t="s">
         <v>3</v>
